--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReQuoteProcess\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Results" sheetId="6" r:id="rId6"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="162913"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
     <x:t>entity</x:t>
   </x:si>
@@ -32,18 +39,29 @@
   </x:si>
   <x:si>
     <x:t>0.9888256192207336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PONumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>po</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barcode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>invoice</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -59,38 +77,32 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -378,17 +390,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C2"/>
+  <x:dimension ref="A1:E5"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A6" sqref="A6 A6:B6"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="14.855469" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.425781" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -399,7 +417,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -408,6 +426,30 @@
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>5</x:v>
+      </x:c>
+      <x:c r="E2" s="0">
+        <x:f>B2*1</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E3" s="0">
+        <x:f>B3*1</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -417,4 +459,23 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Test.xlsx
+++ b/Test.xlsx
@@ -32,13 +32,13 @@
     <x:t>confidence</x:t>
   </x:si>
   <x:si>
-    <x:t>Quantity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.9888256192207336</x:t>
+    <x:t>CustomerPhoneNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>817-831-7215 7451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.6316152513027191</x:t>
   </x:si>
   <x:si>
     <x:t>PONumber</x:t>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <x:si>
     <x:t>entity</x:t>
   </x:si>
@@ -32,25 +32,52 @@
     <x:t>confidence</x:t>
   </x:si>
   <x:si>
+    <x:t>Barcode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E1805385525001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9387673139572144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quantity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9813251495361328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HeightWidth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 x7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9012247622013092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9528923630714417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.8472905158996582</x:t>
+  </x:si>
+  <x:si>
     <x:t>CustomerPhoneNumber</x:t>
   </x:si>
   <x:si>
-    <x:t>817-831-7215 7451</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.6316152513027191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PONumber</x:t>
-  </x:si>
-  <x:si>
-    <x:t>po</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Barcode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>invoice</x:t>
+    <x:t>860-489-1170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.979317307472229</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -438,18 +465,55 @@
       <x:c r="B3" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="E3" s="0">
         <x:f>B3*1</x:f>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -35,19 +35,19 @@
     <x:t>Barcode</x:t>
   </x:si>
   <x:si>
-    <x:t>E1805385525001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.9387673139572144</x:t>
+    <x:t>2201093509000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.6047410368919373</x:t>
   </x:si>
   <x:si>
     <x:t>Quantity</x:t>
   </x:si>
   <x:si>
-    <x:t>1,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.9813251495361328</x:t>
+    <x:t>5000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9653514623641968</x:t>
   </x:si>
   <x:si>
     <x:t>HeightWidth</x:t>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -35,19 +35,19 @@
     <x:t>Barcode</x:t>
   </x:si>
   <x:si>
-    <x:t>2201093509000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.6047410368919373</x:t>
+    <x:t>E1805385525001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9387673139572144</x:t>
   </x:si>
   <x:si>
     <x:t>Quantity</x:t>
   </x:si>
   <x:si>
-    <x:t>5000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.9653514623641968</x:t>
+    <x:t>1,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9813251495361328</x:t>
   </x:si>
   <x:si>
     <x:t>HeightWidth</x:t>
